--- a/reportes/base/oestadisticasCliente.xlsx
+++ b/reportes/base/oestadisticasCliente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4003299a955809c3/Escritorio/calera/reportes/base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_A3AD8052060DDFB58B4CFB36282AC21238724DF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A1A346-29D0-4229-A0B9-62643BED5CCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089F0C7-BEE8-4BB4-BA07-244D40C82E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -227,32 +255,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,16 +630,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="6.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -612,33 +655,33 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -651,10 +694,10 @@
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -672,8 +715,8 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
@@ -683,8 +726,8 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -694,8 +737,8 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -705,8 +748,8 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -716,8 +759,8 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -727,8 +770,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -738,8 +781,8 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -749,8 +792,8 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -760,8 +803,8 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -771,8 +814,8 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -782,8 +825,8 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -793,8 +836,8 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -804,8 +847,8 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -815,8 +858,8 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -826,8 +869,8 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -837,8 +880,8 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -848,8 +891,8 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -859,8 +902,8 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -870,8 +913,8 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -881,8 +924,8 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -892,8 +935,8 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -903,8 +946,8 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -914,8 +957,8 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -925,8 +968,8 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -936,8 +979,8 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -947,8 +990,8 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -958,8 +1001,8 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -969,8 +1012,8 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -980,8 +1023,8 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -991,8 +1034,8 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1002,8 +1045,8 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1013,8 +1056,8 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1024,8 +1067,8 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>

--- a/reportes/base/oestadisticasCliente.xlsx
+++ b/reportes/base/oestadisticasCliente.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089F0C7-BEE8-4BB4-BA07-244D40C82E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920D5224-93D0-4904-9594-21B4AE271F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Pendiente de pago</t>
   </si>
@@ -59,13 +71,16 @@
   </si>
   <si>
     <t>Unidades producto</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +103,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -101,11 +110,36 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -180,37 +214,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -239,62 +242,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -611,17 +613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.26953125" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.08984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
@@ -629,17 +631,22 @@
     <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21">
+        <f ca="1">TODAY()</f>
+        <v>44780</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="6.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -652,430 +659,440 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="56" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="4">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F4:I4"/>

--- a/reportes/base/oestadisticasCliente.xlsx
+++ b/reportes/base/oestadisticasCliente.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920D5224-93D0-4904-9594-21B4AE271F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8F7FF-78FD-492D-B15A-2CBB3DFC23FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +110,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -242,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -267,37 +260,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +606,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,20 +622,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="13">
         <f ca="1">TODAY()</f>
-        <v>44780</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="6.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -662,31 +652,31 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -725,7 +715,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1081,15 +1071,15 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/reportes/base/oestadisticasCliente.xlsx
+++ b/reportes/base/oestadisticasCliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8F7FF-78FD-492D-B15A-2CBB3DFC23FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD43D9-275C-4B02-AD70-A07EEF0E941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,13 @@
       <name val="Aparajita"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -289,6 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +614,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,8 +629,8 @@
     <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11"/>
@@ -635,7 +643,7 @@
       </c>
       <c r="H1" s="13">
         <f ca="1">TODAY()</f>
-        <v>44782</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="6.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1091,7 +1099,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial Black,Normal"&amp;K00-048Minerales San Antonio SA de CV</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial Black,Normal"&amp;K00-047MINERALES SAN ANTONIO S.A. DE C.V.</oddHeader>
   </headerFooter>
 </worksheet>
 </file>